--- a/Excel/under65_stroke_risk_project_v6.xlsx
+++ b/Excel/under65_stroke_risk_project_v6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarpy\Documents\portfolio_projects\under_65_stroke_risk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF549E7F-0F25-4C93-9205-A5B7DD8D3285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F507939-0814-425A-BB98-7080FB629B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="9" xr2:uid="{D13153F3-D28B-4BE2-A42F-38EF5B75FFD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{D13153F3-D28B-4BE2-A42F-38EF5B75FFD3}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -5015,7 +5015,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5031,6 +5031,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5119,7 +5125,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5411,6 +5417,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -54882,7 +54900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6126C36F-F768-4888-8727-5FE45433CBEE}">
   <dimension ref="B2:M142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A109" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
@@ -58604,7 +58622,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B26" s="47">
         <v>24</v>
       </c>
@@ -59179,10 +59197,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8A1403-F8AB-46A4-B7AB-76C505A072E0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59197,159 +59218,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="107" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="104">
         <v>45820</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="104">
         <v>45821</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="104">
         <v>45821</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="104">
         <v>45821</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="104">
         <v>45821</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="104">
         <v>45821</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="104">
         <v>45821</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>129</v>
       </c>
     </row>
@@ -59365,7 +59387,8 @@
       <formula>"not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/under65_stroke_risk_project_v6.xlsx
+++ b/Excel/under65_stroke_risk_project_v6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarpy\Documents\portfolio_projects\under_65_stroke_risk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F507939-0814-425A-BB98-7080FB629B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9CFC18-3264-47A5-8AF5-4494DD36D817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{D13153F3-D28B-4BE2-A42F-38EF5B75FFD3}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="3" xr2:uid="{D13153F3-D28B-4BE2-A42F-38EF5B75FFD3}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -1948,161 +1948,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. Never smoked and unknown status patients represent roughly </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>69%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of the data.
-2. Having a history of smoking (smokes, formerly smokes) showed a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>higher stroke rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(3.79% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.76%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).
-3. Smoking or formerly smoked shows </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>almost double</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the rate of stroke occurence compared to the other groups.
-4. Smokes and formerly smokes contributed roughly the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>same number of stroke occurences</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> while being roughly </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>half the size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of the other two groups.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>1. Patients within the normal and overweight categories make up</t>
     </r>
     <r>
@@ -2671,139 +2516,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> stroke rate among patients without hypertension. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chi-Square Test</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is was used to evaluate the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>statistical significance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of categorical features in relation to the target variabel (stroke).
-2. Both</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> gender and residence_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> had p-values that were </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">greater than the 0.05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">significance threshold, indicating </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>no statistical significant association</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> between these two features and stroke in patients under 65.
-3. As a result, gender and residence type will be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>excluded from further analysis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
     </r>
   </si>
   <si>
@@ -3646,14 +3358,6 @@
   </si>
   <si>
     <t>Bin Continuous Features</t>
-  </si>
-  <si>
-    <t>Based on CDC Standards, the age group was binned into:
-* children(0-17), youngadult(18-24),  adults(25-34), midlife adults(34-44), older adults(45-54), pre-seniors(55-64)
-Bsed on CDC standards, avg_glucose_level was binned into:
-* hypoglycemic(&lt;70), normal (70-99), pre-diabetic (100-125), diabetic (126-199), and high diabetes (200+)
-Based on CDC standards, bmi was binned into:
-* underweight, normal weight, overweight, obesity class 1, obsesity class 2, and obesity class 3</t>
   </si>
   <si>
     <t>Under 65</t>
@@ -4822,6 +4526,302 @@
 4) A recruiter-facing README summary to showcase analysis process and results.</t>
     </r>
   </si>
+  <si>
+    <t>Based on CDC Standards, the age group was binned into:
+* children(0-17), young adult(18-24),  adults(25-34), midlife adults(34-44), older adults(45-54), pre-seniors(55-64)
+Based on CDC standards, avg_glucose_level was binned into:
+* hypoglycemic(&lt;70), normal (70-99), pre-diabetic (100-125), diabetic (126-199), and high diabetes (200+)
+Based on CDC standards, bmi was binned into:
+* underweight, normal weight, overweight, obesity class 1, obesity class 2, and obesity class 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Never smoked and unknown status patients represent roughly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>69%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the data.
+2. Having a history of smoking (smokes, formerly smokes) showed a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>higher stroke rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(3.79% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.76%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+3. Smoking or formerly smoked shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>almost double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the rate of stroke occurrence compared to the other groups.
+4. Smokes and formerly smokes contributed roughly the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same number of stroke occurrences</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> while being roughly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>half the size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the other two groups.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chi-Square Test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is was used to evaluate the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>statistical significance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of categorical features in relation to the target variable (stroke).
+2. Both</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gender and residence_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> had p-values that were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">greater than the 0.05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">significance threshold, indicating </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no statistical significant association</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between these two features and stroke in patients under 65.
+3. As a result, gender and residence type will be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>excluded from further analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -5363,6 +5363,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5417,18 +5429,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -54483,32 +54483,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="A1" s="89" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
       <c r="M2" s="7" t="s">
         <v>7</v>
       </c>
@@ -54520,17 +54520,17 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
       <c r="M3" s="3" t="s">
         <v>0</v>
       </c>
@@ -54542,17 +54542,17 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
       <c r="M4" s="3" t="s">
         <v>3</v>
       </c>
@@ -54564,17 +54564,17 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
       <c r="M5" s="3" t="s">
         <v>5</v>
       </c>
@@ -54586,17 +54586,17 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
       <c r="M6" s="3" t="s">
         <v>15</v>
       </c>
@@ -54608,17 +54608,17 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
       <c r="M7" s="3" t="s">
         <v>16</v>
       </c>
@@ -54630,17 +54630,17 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
       <c r="M8" s="3" t="s">
         <v>10</v>
       </c>
@@ -54652,17 +54652,17 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
       <c r="M9" s="3" t="s">
         <v>13</v>
       </c>
@@ -54674,218 +54674,218 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -55743,12 +55743,12 @@
       <c r="I77" s="53"/>
     </row>
     <row r="96" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B96" s="98" t="s">
-        <v>289</v>
-      </c>
-      <c r="C96" s="98"/>
-      <c r="D96" s="98"/>
-      <c r="E96" s="98"/>
+      <c r="B96" s="102" t="s">
+        <v>286</v>
+      </c>
+      <c r="C96" s="102"/>
+      <c r="D96" s="102"/>
+      <c r="E96" s="102"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="59" t="s">
@@ -55828,7 +55828,7 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C102" s="18">
         <v>0.15874571288584027</v>
@@ -55856,7 +55856,7 @@
     </row>
     <row r="104" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C104" s="80">
         <v>0.30475257226849584</v>
@@ -56471,12 +56471,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="59" t="s">
@@ -56489,7 +56489,7 @@
         <v>228</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -56581,12 +56581,12 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="59" t="s">
@@ -56599,7 +56599,7 @@
         <v>229</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
@@ -56613,7 +56613,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.35">
@@ -56692,12 +56692,12 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B52" s="98" t="s">
-        <v>280</v>
-      </c>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
+      <c r="B52" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="59" t="s">
@@ -56710,7 +56710,7 @@
         <v>231</v>
       </c>
       <c r="E53" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -56724,7 +56724,7 @@
         <v>0.1028</v>
       </c>
       <c r="E54" s="61" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -56964,21 +56964,21 @@
       </c>
     </row>
     <row r="103" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B103" s="103" t="s">
-        <v>282</v>
-      </c>
-      <c r="C103" s="103"/>
-      <c r="D103" s="103"/>
+      <c r="B103" s="107" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="76" t="s">
         <v>230</v>
       </c>
       <c r="C104" s="77" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D104" s="76" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
@@ -56989,7 +56989,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="D105" s="72" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
@@ -57173,13 +57173,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="83" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C2" s="83" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -57187,7 +57187,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -57195,10 +57195,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -57206,10 +57206,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -57217,10 +57217,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -57228,10 +57228,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -57239,10 +57239,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -57250,10 +57250,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -57261,10 +57261,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -57272,10 +57272,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -57283,10 +57283,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -57294,10 +57294,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -57305,10 +57305,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -57316,10 +57316,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="72" x14ac:dyDescent="0.3">
@@ -57327,10 +57327,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -57338,10 +57338,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -57349,10 +57349,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -57360,10 +57360,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -57371,10 +57371,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -58239,14 +58239,14 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -58264,8 +58264,8 @@
   </sheetPr>
   <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58279,12 +58279,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
@@ -58378,10 +58378,10 @@
         <v>45821</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
@@ -58479,7 +58479,7 @@
         <v>173</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="69" x14ac:dyDescent="0.3">
@@ -58493,7 +58493,7 @@
         <v>185</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -58507,7 +58507,7 @@
         <v>198</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
@@ -58521,7 +58521,7 @@
         <v>197</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
@@ -58535,7 +58535,7 @@
         <v>202</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="69" x14ac:dyDescent="0.3">
@@ -58549,7 +58549,7 @@
         <v>214</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
@@ -58563,7 +58563,7 @@
         <v>218</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="82.8" x14ac:dyDescent="0.3">
@@ -58577,7 +58577,7 @@
         <v>226</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -58591,7 +58591,7 @@
         <v>224</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -58605,7 +58605,7 @@
         <v>225</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
@@ -58619,7 +58619,7 @@
         <v>238</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
@@ -58633,7 +58633,7 @@
         <v>240</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
@@ -58647,7 +58647,7 @@
         <v>241</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
@@ -58661,15 +58661,15 @@
         <v>242</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -58677,7 +58677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67A04FD-F1F5-41CF-A85B-7876F5D9F697}">
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -58723,10 +58723,10 @@
         <v>94</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
@@ -58767,131 +58767,131 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C18" s="2">
         <v>90</v>
@@ -58903,7 +58903,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C19" s="2">
         <v>159</v>
@@ -58933,13 +58933,13 @@
         <v>133</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E34"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C35" s="6">
         <v>4082</v>
@@ -58950,7 +58950,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C36" s="6">
         <v>1027</v>
@@ -59095,7 +59095,7 @@
         <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -59136,7 +59136,7 @@
         <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -59177,7 +59177,7 @@
         <v>110</v>
       </c>
       <c r="M6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -59202,7 +59202,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -59218,22 +59218,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="88" t="s">
         <v>79</v>
       </c>
     </row>
@@ -59241,7 +59241,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="104">
+      <c r="B2" s="85">
         <v>45820</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -59261,7 +59261,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="85">
         <v>45821</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -59281,7 +59281,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="104">
+      <c r="B4" s="85">
         <v>45821</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -59301,7 +59301,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="104">
+      <c r="B5" s="85">
         <v>45821</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -59321,7 +59321,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="104">
+      <c r="B6" s="85">
         <v>45821</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -59341,7 +59341,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="104">
+      <c r="B7" s="85">
         <v>45821</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -59359,7 +59359,7 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="85">
         <v>45821</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -59415,14 +59415,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
@@ -59565,16 +59565,16 @@
       </c>
     </row>
     <row r="27" spans="2:24" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
       <c r="U27" s="78" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V27" s="79" t="s">
         <v>137</v>
@@ -59606,7 +59606,7 @@
         <v>138</v>
       </c>
       <c r="U28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V28" s="18">
         <f>X28/W28</f>
@@ -59639,7 +59639,7 @@
         <v>0.1</v>
       </c>
       <c r="U29" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="V29" s="18">
         <f>X29/W29</f>
@@ -59691,8 +59691,8 @@
       <c r="G31" s="19">
         <v>0.18890000000000001</v>
       </c>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
       <c r="V31" s="60">
         <f>V29/V28</f>
         <v>2.7844214270767944</v>
@@ -59717,8 +59717,8 @@
       <c r="G32" s="19">
         <v>0.15559999999999999</v>
       </c>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
@@ -59739,18 +59739,18 @@
       <c r="G33" s="19">
         <v>0.18890000000000001</v>
       </c>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
     </row>
     <row r="51" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
     </row>
     <row r="52" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="29" t="s">
@@ -59813,14 +59813,14 @@
       </c>
     </row>
     <row r="73" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B73" s="91" t="s">
+      <c r="B73" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="C73" s="91"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="91"/>
-      <c r="F73" s="91"/>
-      <c r="G73" s="91"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="95"/>
     </row>
     <row r="74" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="17" t="s">
@@ -59915,14 +59915,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
     </row>
     <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
@@ -59985,14 +59985,14 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
     </row>
     <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="s">
@@ -60138,14 +60138,14 @@
       <c r="H29" s="20"/>
     </row>
     <row r="47" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
     </row>
     <row r="48" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="21" t="s">
@@ -60268,14 +60268,14 @@
       </c>
     </row>
     <row r="71" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B71" s="95" t="s">
+      <c r="B71" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="95"/>
-      <c r="D71" s="95"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="95"/>
-      <c r="G71" s="95"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
     </row>
     <row r="72" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B72" s="17" t="s">
@@ -60338,14 +60338,14 @@
       </c>
     </row>
     <row r="92" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B92" s="91" t="s">
+      <c r="B92" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="C92" s="91"/>
-      <c r="D92" s="91"/>
-      <c r="E92" s="91"/>
-      <c r="F92" s="91"/>
-      <c r="G92" s="91"/>
+      <c r="C92" s="95"/>
+      <c r="D92" s="95"/>
+      <c r="E92" s="95"/>
+      <c r="F92" s="95"/>
+      <c r="G92" s="95"/>
     </row>
     <row r="93" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B93" s="17" t="s">
@@ -60408,14 +60408,14 @@
       </c>
     </row>
     <row r="113" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B113" s="91" t="s">
+      <c r="B113" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="C113" s="92"/>
-      <c r="D113" s="92"/>
-      <c r="E113" s="92"/>
-      <c r="F113" s="92"/>
-      <c r="G113" s="92"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="96"/>
+      <c r="E113" s="96"/>
+      <c r="F113" s="96"/>
+      <c r="G113" s="96"/>
     </row>
     <row r="114" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B114" s="17" t="s">
@@ -60530,7 +60530,7 @@
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D137">
         <f>(C115+C116)/SUM(C115:C118)</f>
@@ -60601,12 +60601,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="96" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
     </row>
     <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -60621,15 +60621,15 @@
       <c r="E2" t="s">
         <v>206</v>
       </c>
-      <c r="M2" s="96" t="s">
+      <c r="M2" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="N2" s="96"/>
-      <c r="P2" s="99" t="s">
+      <c r="N2" s="100"/>
+      <c r="P2" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="101"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="105"/>
     </row>
     <row r="3" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -61044,10 +61044,10 @@
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
-      <c r="P12" s="102" t="s">
+      <c r="P12" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="Q12" s="102"/>
+      <c r="Q12" s="106"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -61085,8 +61085,8 @@
         <f>GETPIVOTDATA("count",$G$3,"feature","hypertension","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","hypertension","category","hypertension")/GETPIVOTDATA("count",$G$3,"feature","hypertension")</f>
         <v>262.09113179813818</v>
       </c>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -61124,8 +61124,8 @@
         <f>GETPIVOTDATA("count",$G$3,"feature","hypertension","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","hypertension","category","no hypertension")/GETPIVOTDATA("count",$G$3,"feature","hypertension")</f>
         <v>3729.9088682018619</v>
       </c>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
@@ -61155,8 +61155,8 @@
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -61194,8 +61194,8 @@
         <f>GETPIVOTDATA("count",$G$3,"feature","residence_type","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","residence_type","category","rural")/GETPIVOTDATA("count",$G$3,"feature","residence_type")</f>
         <v>1981.3307202351789</v>
       </c>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -61233,8 +61233,8 @@
         <f>GETPIVOTDATA("count",$G$3,"feature","residence_type","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","residence_type","category","urban")/GETPIVOTDATA("count",$G$3,"feature","residence_type")</f>
         <v>2010.6692797648211</v>
       </c>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
@@ -61264,8 +61264,8 @@
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -61303,8 +61303,8 @@
         <f>GETPIVOTDATA("count",$G$3,"feature","smoking_status","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","smoking_status","category","formerly smoked")/GETPIVOTDATA("count",$G$3,"feature","smoking_status")</f>
         <v>572.10191082802544</v>
       </c>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
@@ -61379,10 +61379,10 @@
         <f>GETPIVOTDATA("count",$G$3,"feature","smoking_status","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","smoking_status","category","smokes")/GETPIVOTDATA("count",$G$3,"feature","smoking_status")</f>
         <v>644.47035766780994</v>
       </c>
-      <c r="P21" s="98" t="s">
+      <c r="P21" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="Q21" s="98"/>
+      <c r="Q21" s="102"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
@@ -61578,11 +61578,11 @@
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","never_worked")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>21.514943655071043</v>
       </c>
-      <c r="P26" s="97" t="s">
+      <c r="P26" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
@@ -61620,9 +61620,9 @@
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","private")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>2356.8642822146007</v>
       </c>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -61657,9 +61657,9 @@
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","self-employed")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>427.36501714845662</v>
       </c>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="97"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
@@ -61686,9 +61686,9 @@
       <c r="J29">
         <v>2410</v>
       </c>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -61715,9 +61715,9 @@
       <c r="J30">
         <v>437</v>
       </c>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="97"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -61744,9 +61744,9 @@
       <c r="J31">
         <v>28574</v>
       </c>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="97"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
@@ -61761,9 +61761,9 @@
       <c r="E32">
         <v>685</v>
       </c>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="97"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
@@ -61778,9 +61778,9 @@
       <c r="E33">
         <v>16</v>
       </c>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="97"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
@@ -61795,9 +61795,9 @@
       <c r="E34">
         <v>510</v>
       </c>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
@@ -61812,9 +61812,9 @@
       <c r="E35">
         <v>22</v>
       </c>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="97"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" t="s">

--- a/Excel/under65_stroke_risk_project_v6.xlsx
+++ b/Excel/under65_stroke_risk_project_v6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarpy\Documents\portfolio_projects\under_65_stroke_risk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9CFC18-3264-47A5-8AF5-4494DD36D817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C17229-C0B0-4220-BD05-43C1FB735599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="3" xr2:uid="{D13153F3-D28B-4BE2-A42F-38EF5B75FFD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D13153F3-D28B-4BE2-A42F-38EF5B75FFD3}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="344">
   <si>
     <t>Data cleaning and filtering</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Exploratory Data Analysis (EDA)</t>
-  </si>
-  <si>
-    <t>PostgreSQL + Excel</t>
   </si>
   <si>
     <t>Data visualization</t>
@@ -347,9 +344,6 @@
   </si>
   <si>
     <t>Patient's age at data collection</t>
-  </si>
-  <si>
-    <t>"other" is removed due to being a single instance which makes it both statistically insignificant and noise potential.</t>
   </si>
   <si>
     <t>Presence or absence of hypertension in patient profile.</t>
@@ -4822,6 +4816,67 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>Percent of Population</t>
+  </si>
+  <si>
+    <t>Percent of Stroke Cases</t>
+  </si>
+  <si>
+    <t>In-Group Stroke Percent</t>
+  </si>
+  <si>
+    <t>PostgreSQL, Excel, and Python</t>
+  </si>
+  <si>
+    <t>Binned age into CDC standard categories</t>
+  </si>
+  <si>
+    <t>children(0-17), young adult(18-24), adult (25-34), midlife adult (35-44), older adult (45-54), pre-seniors (55-64)</t>
+  </si>
+  <si>
+    <t>"other" is removed due to being a single instance which makes it both statistically insignificant and noise potential.
+Tested as statistically insignificant (Chi-Square Test), not included in formal analysis.</t>
+  </si>
+  <si>
+    <t>Tested as statistically insignificant (Chi-Square Test), not included in formal analysis.</t>
+  </si>
+  <si>
+    <t>Converted binary (0/1) values to no hypertension / hypertension</t>
+  </si>
+  <si>
+    <t>Converted binary (0/1) values to no heart disease / heart disease</t>
+  </si>
+  <si>
+    <t>Converted no/yes to never married / married</t>
+  </si>
+  <si>
+    <t>Conterted binary (0/1) to no stroke / had stroke</t>
+  </si>
+  <si>
+    <t>Binned continuous data to CDC standard categories</t>
+  </si>
+  <si>
+    <t>no hypertension, hypertension</t>
+  </si>
+  <si>
+    <t>no heart disease, heart disease</t>
+  </si>
+  <si>
+    <t>never married, married</t>
+  </si>
+  <si>
+    <t>no stroke, had stroke</t>
+  </si>
+  <si>
+    <t>hypoglycemic(&lt;70), normal (70-99), pre-diabetic (100-125), diabetic (126-199), high diabetes (200+)</t>
+  </si>
+  <si>
+    <t>underweight, normal weight, overweight, obesity clase 1, obesity class 2, obesity class 3</t>
+  </si>
+  <si>
+    <t>Original Features</t>
+  </si>
 </sst>
 </file>
 
@@ -4832,7 +4887,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5014,6 +5069,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5125,7 +5188,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5153,9 +5216,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5357,12 +5417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5373,15 +5427,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5429,6 +5474,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -54471,8 +54546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE1CA4-DAEC-4D28-B746-A4B67F92063E}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54483,58 +54558,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
+      <c r="A1" s="102" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
     </row>
     <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
       <c r="M2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
       <c r="M3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="108" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -54542,350 +54617,350 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
       <c r="M4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>4</v>
+      <c r="N4" s="109" t="s">
+        <v>327</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
       <c r="M5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="O5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
       <c r="M6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
       <c r="M7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="O7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
       <c r="M8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
       <c r="M9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="O9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -54900,7 +54975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6126C36F-F768-4888-8727-5FE45433CBEE}">
   <dimension ref="B2:M142"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A109" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
@@ -54922,1439 +54997,1439 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+        <v>135</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="41">
+        <v>193</v>
+      </c>
+      <c r="D3" s="40">
         <v>2.35E-2</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="40">
         <v>0.1444</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="40">
         <v>0.13539999999999999</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="43"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="41">
+        <v>189</v>
+      </c>
+      <c r="D4" s="40">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <v>0.18890000000000001</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="40">
         <v>7.46E-2</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="41">
+        <v>145</v>
+      </c>
+      <c r="D5" s="40">
         <v>0.1842</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="40">
         <v>0.58889999999999998</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="40">
         <v>7.0499999999999993E-2</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="41">
+        <v>31</v>
+      </c>
+      <c r="D6" s="40">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="40">
         <v>0.17780000000000001</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <v>5.9700000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="41">
+        <v>169</v>
+      </c>
+      <c r="D7" s="40">
         <v>0.16139999999999999</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="40">
         <v>0.27779999999999999</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="40">
         <v>3.7900000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="41">
+        <v>166</v>
+      </c>
+      <c r="D8" s="40">
         <v>0.14330000000000001</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <v>0.24440000000000001</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="41">
+        <v>144</v>
+      </c>
+      <c r="D9" s="40">
         <v>0.19550000000000001</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <v>0.3</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="41">
+        <v>180</v>
+      </c>
+      <c r="D10" s="40">
         <v>0.1019</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="40">
         <v>0.15559999999999999</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="41">
+        <v>160</v>
+      </c>
+      <c r="D11" s="40">
         <v>0.59140000000000004</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="40">
         <v>0.9</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="40">
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="41">
+        <v>188</v>
+      </c>
+      <c r="D12" s="40">
         <v>0.10290000000000001</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="40">
         <v>0.15559999999999999</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="40">
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="41">
+        <v>181</v>
+      </c>
+      <c r="D13" s="40">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="40">
         <v>0.1333</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="40">
         <v>3.2899999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="41">
+        <v>178</v>
+      </c>
+      <c r="D14" s="40">
         <v>0.28470000000000001</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="40">
         <v>0.42220000000000002</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="40">
         <v>3.27E-2</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="41">
+        <v>150</v>
+      </c>
+      <c r="D15" s="40">
         <v>0.12889999999999999</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="40">
         <v>0.17780000000000001</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="40">
         <v>3.04E-2</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="41">
+        <v>151</v>
+      </c>
+      <c r="D16" s="40">
         <v>0.1071</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="40">
         <v>0.1444</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="40">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="41">
+        <v>179</v>
+      </c>
+      <c r="D17" s="40">
         <v>0.18129999999999999</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>0.23330000000000001</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="40">
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="41">
+        <v>149</v>
+      </c>
+      <c r="D18" s="40">
         <v>0.59040000000000004</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="40">
         <v>0.65559999999999996</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="40">
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="41">
+        <v>187</v>
+      </c>
+      <c r="D19" s="40">
         <v>0.20680000000000001</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="40">
         <v>0.18890000000000001</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="40">
         <v>2.01E-2</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="41">
+        <v>198</v>
+      </c>
+      <c r="D20" s="40">
         <v>0.93430000000000002</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="40">
         <v>0.82220000000000004</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="40">
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="41">
+        <v>192</v>
+      </c>
+      <c r="D21" s="40">
         <v>0.97650000000000003</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="40">
         <v>0.85560000000000003</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="40">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="41">
+        <v>186</v>
+      </c>
+      <c r="D22" s="40">
         <v>0.4819</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="40">
         <v>0.36670000000000003</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="40">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="41">
+        <v>167</v>
+      </c>
+      <c r="D23" s="40">
         <v>0.36380000000000001</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="40">
         <v>0.26669999999999999</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="40">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="41">
+        <v>185</v>
+      </c>
+      <c r="D24" s="40">
         <v>0.15260000000000001</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="40">
         <v>0.1</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="40">
         <v>1.44E-2</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="41">
+        <v>168</v>
+      </c>
+      <c r="D25" s="40">
         <v>0.33150000000000002</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="40">
         <v>0.21110000000000001</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="40">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="41">
+        <v>143</v>
+      </c>
+      <c r="D26" s="40">
         <v>0.16850000000000001</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="40">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="40">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="41">
+        <v>161</v>
+      </c>
+      <c r="D27" s="40">
         <v>0.40860000000000002</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="40">
         <v>0.1</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="41">
+        <v>177</v>
+      </c>
+      <c r="D28" s="40">
         <v>0.26340000000000002</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="40">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="40">
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="41">
+        <v>152</v>
+      </c>
+      <c r="D29" s="40">
         <v>0.16830000000000001</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="40">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="40">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="41">
+        <v>140</v>
+      </c>
+      <c r="D30" s="40">
         <v>0.2097</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="40">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="40">
         <v>2.3E-3</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="41">
+        <v>142</v>
+      </c>
+      <c r="D31" s="40">
         <v>0.1489</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="40">
         <v>1.11E-2</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="40">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="41">
+        <v>141</v>
+      </c>
+      <c r="D32" s="40">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="40">
         <v>0</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="41">
+        <v>153</v>
+      </c>
+      <c r="D33" s="40">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="40">
         <v>0</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="41">
+        <v>176</v>
+      </c>
+      <c r="D34" s="40">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="40">
         <v>0</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" s="41">
+        <v>193</v>
+      </c>
+      <c r="C39" s="40">
         <v>0.13539999999999999</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="40">
         <v>2.35E-2</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40" s="41">
+        <v>189</v>
+      </c>
+      <c r="C40" s="40">
         <v>7.46E-2</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="40">
         <v>5.5899999999999998E-2</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="41">
+        <v>145</v>
+      </c>
+      <c r="C41" s="40">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="40">
         <v>0.1842</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="41">
+        <v>31</v>
+      </c>
+      <c r="C42" s="40">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="40">
         <v>6.5699999999999995E-2</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="41">
+        <v>169</v>
+      </c>
+      <c r="C43" s="40">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="40">
         <v>0.16139999999999999</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="41">
+        <v>166</v>
+      </c>
+      <c r="C44" s="40">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="40">
         <v>0.14330000000000001</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="41">
+        <v>144</v>
+      </c>
+      <c r="C45" s="40">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="40">
         <v>0.19550000000000001</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="41">
+        <v>180</v>
+      </c>
+      <c r="C46" s="40">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="40">
         <v>0.1019</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="41">
+        <v>160</v>
+      </c>
+      <c r="C47" s="40">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47" s="40">
         <v>0.59140000000000004</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C48" s="41">
+        <v>188</v>
+      </c>
+      <c r="C48" s="40">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="40">
         <v>0.10290000000000001</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="41">
+        <v>181</v>
+      </c>
+      <c r="C49" s="40">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="40">
         <v>8.9399999999999993E-2</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C50" s="41">
+        <v>178</v>
+      </c>
+      <c r="C50" s="40">
         <v>3.27E-2</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="40">
         <v>0.28470000000000001</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="41">
+        <v>150</v>
+      </c>
+      <c r="C51" s="40">
         <v>3.04E-2</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="40">
         <v>0.12889999999999999</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="41">
+        <v>151</v>
+      </c>
+      <c r="C52" s="40">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="40">
         <v>0.1071</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="41">
+        <v>179</v>
+      </c>
+      <c r="C53" s="40">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="40">
         <v>0.18129999999999999</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="41">
+        <v>149</v>
+      </c>
+      <c r="C54" s="40">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="40">
         <v>0.59040000000000004</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="41">
+        <v>187</v>
+      </c>
+      <c r="C55" s="40">
         <v>2.01E-2</v>
       </c>
-      <c r="D55" s="41">
+      <c r="D55" s="40">
         <v>0.20680000000000001</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C56" s="41">
+        <v>186</v>
+      </c>
+      <c r="C56" s="40">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="D56" s="41">
+      <c r="D56" s="40">
         <v>0.4819</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C57" s="41">
+        <v>185</v>
+      </c>
+      <c r="C57" s="40">
         <v>1.44E-2</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D57" s="40">
         <v>0.15260000000000001</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="41">
+        <v>143</v>
+      </c>
+      <c r="C58" s="40">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="40">
         <v>0.16850000000000001</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I77" s="53"/>
+      <c r="I77" s="52"/>
     </row>
     <row r="96" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B96" s="102" t="s">
-        <v>286</v>
-      </c>
-      <c r="C96" s="102"/>
-      <c r="D96" s="102"/>
-      <c r="E96" s="102"/>
+      <c r="B96" s="96" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" s="96"/>
+      <c r="D96" s="96"/>
+      <c r="E96" s="96"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B97" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="C97" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="D97" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="E97" s="59" t="s">
-        <v>137</v>
+      <c r="B97" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C97" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" s="58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="18">
+        <v>193</v>
+      </c>
+      <c r="C98" s="17">
         <v>2.35E-2</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="17">
         <v>0.1444</v>
       </c>
-      <c r="E98" s="80">
+      <c r="E98" s="79">
         <v>0.13539999999999999</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>191</v>
-      </c>
-      <c r="C99" s="18">
+        <v>189</v>
+      </c>
+      <c r="C99" s="17">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="17">
         <v>0.18890000000000001</v>
       </c>
-      <c r="E99" s="18">
+      <c r="E99" s="17">
         <v>7.46E-2</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>147</v>
-      </c>
-      <c r="C100" s="18">
+        <v>145</v>
+      </c>
+      <c r="C100" s="17">
         <v>0.1842</v>
       </c>
-      <c r="D100" s="80">
+      <c r="D100" s="79">
         <v>0.58889999999999998</v>
       </c>
-      <c r="E100" s="18">
+      <c r="E100" s="17">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>32</v>
-      </c>
-      <c r="C101" s="18">
+        <v>31</v>
+      </c>
+      <c r="C101" s="17">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="D101" s="18">
+      <c r="D101" s="17">
         <v>0.17780000000000001</v>
       </c>
-      <c r="E101" s="18">
+      <c r="E101" s="17">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>283</v>
-      </c>
-      <c r="C102" s="18">
+        <v>281</v>
+      </c>
+      <c r="C102" s="17">
         <v>0.15874571288584027</v>
       </c>
-      <c r="D102" s="18">
+      <c r="D102" s="17">
         <v>0.34444444444444444</v>
       </c>
-      <c r="E102" s="18">
+      <c r="E102" s="17">
         <v>4.7839506172839504E-2</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>171</v>
-      </c>
-      <c r="C103" s="18">
+        <v>169</v>
+      </c>
+      <c r="C103" s="17">
         <v>0.16139999999999999</v>
       </c>
-      <c r="D103" s="18">
+      <c r="D103" s="17">
         <v>0.27779999999999999</v>
       </c>
-      <c r="E103" s="18">
+      <c r="E103" s="17">
         <v>3.7900000000000003E-2</v>
       </c>
     </row>
     <row r="104" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>285</v>
-      </c>
-      <c r="C104" s="80">
+        <v>283</v>
+      </c>
+      <c r="C104" s="79">
         <v>0.30475257226849584</v>
       </c>
-      <c r="D104" s="18">
+      <c r="D104" s="17">
         <v>0.52222222222222225</v>
       </c>
-      <c r="E104" s="18">
+      <c r="E104" s="17">
         <v>3.778135048231511E-2</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C110" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="D110" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E110" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="F110" s="58" t="s">
-        <v>137</v>
+      <c r="C110" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E110" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F110" s="57" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C111" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="D111" s="81">
+      <c r="C111" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="D111" s="80">
         <v>2.35E-2</v>
       </c>
-      <c r="E111" s="81">
+      <c r="E111" s="80">
         <v>0.1444</v>
       </c>
-      <c r="F111" s="81">
+      <c r="F111" s="80">
         <v>0.13539999999999999</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C112" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="D112" s="81">
+      <c r="C112" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D112" s="80">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="E112" s="81">
+      <c r="E112" s="80">
         <v>0.18890000000000001</v>
       </c>
-      <c r="F112" s="81">
+      <c r="F112" s="80">
         <v>7.46E-2</v>
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C113" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D113" s="81">
+      <c r="C113" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D113" s="80">
         <v>0.1842</v>
       </c>
-      <c r="E113" s="81">
+      <c r="E113" s="80">
         <v>0.58889999999999998</v>
       </c>
-      <c r="F113" s="81">
+      <c r="F113" s="80">
         <v>7.0499999999999993E-2</v>
       </c>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C114" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D114" s="81">
+      <c r="C114" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114" s="80">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="E114" s="81">
+      <c r="E114" s="80">
         <v>0.17780000000000001</v>
       </c>
-      <c r="F114" s="81">
+      <c r="F114" s="80">
         <v>5.9700000000000003E-2</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C115" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="D115" s="81">
+      <c r="C115" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D115" s="80">
         <v>0.16139999999999999</v>
       </c>
-      <c r="E115" s="81">
+      <c r="E115" s="80">
         <v>0.27779999999999999</v>
       </c>
-      <c r="F115" s="81">
+      <c r="F115" s="80">
         <v>3.7900000000000003E-2</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C116" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D116" s="81">
+      <c r="C116" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" s="80">
         <v>0.14330000000000001</v>
       </c>
-      <c r="E116" s="81">
+      <c r="E116" s="80">
         <v>0.24440000000000001</v>
       </c>
-      <c r="F116" s="81">
+      <c r="F116" s="80">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C117" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D117" s="81">
+      <c r="C117" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" s="80">
         <v>0.19550000000000001</v>
       </c>
-      <c r="E117" s="81">
+      <c r="E117" s="80">
         <v>0.3</v>
       </c>
-      <c r="F117" s="81">
+      <c r="F117" s="80">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C118" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="D118" s="81">
+      <c r="C118" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="D118" s="80">
         <v>0.1019</v>
       </c>
-      <c r="E118" s="81">
+      <c r="E118" s="80">
         <v>0.15559999999999999</v>
       </c>
-      <c r="F118" s="81">
+      <c r="F118" s="80">
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C119" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="D119" s="81">
+      <c r="C119" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D119" s="80">
         <v>0.59140000000000004</v>
       </c>
-      <c r="E119" s="81">
+      <c r="E119" s="80">
         <v>0.9</v>
       </c>
-      <c r="F119" s="81">
+      <c r="F119" s="80">
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C120" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="D120" s="81">
+      <c r="C120" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D120" s="80">
         <v>0.10290000000000001</v>
       </c>
-      <c r="E120" s="81">
+      <c r="E120" s="80">
         <v>0.15559999999999999</v>
       </c>
-      <c r="F120" s="81">
+      <c r="F120" s="80">
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C121" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="D121" s="81">
+      <c r="C121" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D121" s="80">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="E121" s="81">
+      <c r="E121" s="80">
         <v>0.1333</v>
       </c>
-      <c r="F121" s="81">
+      <c r="F121" s="80">
         <v>3.2899999999999999E-2</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C122" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="D122" s="81">
+      <c r="C122" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D122" s="80">
         <v>0.28470000000000001</v>
       </c>
-      <c r="E122" s="81">
+      <c r="E122" s="80">
         <v>0.42220000000000002</v>
       </c>
-      <c r="F122" s="81">
+      <c r="F122" s="80">
         <v>3.27E-2</v>
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C123" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D123" s="81">
+      <c r="C123" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D123" s="80">
         <v>0.12889999999999999</v>
       </c>
-      <c r="E123" s="81">
+      <c r="E123" s="80">
         <v>0.17780000000000001</v>
       </c>
-      <c r="F123" s="81">
+      <c r="F123" s="80">
         <v>3.04E-2</v>
       </c>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C124" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="D124" s="81">
+      <c r="C124" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D124" s="80">
         <v>0.1071</v>
       </c>
-      <c r="E124" s="81">
+      <c r="E124" s="80">
         <v>0.1444</v>
       </c>
-      <c r="F124" s="81">
+      <c r="F124" s="80">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C125" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="D125" s="81">
+      <c r="C125" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="D125" s="80">
         <v>0.18129999999999999</v>
       </c>
-      <c r="E125" s="81">
+      <c r="E125" s="80">
         <v>0.23330000000000001</v>
       </c>
-      <c r="F125" s="81">
+      <c r="F125" s="80">
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C126" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D126" s="81">
+      <c r="C126" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126" s="80">
         <v>0.59040000000000004</v>
       </c>
-      <c r="E126" s="81">
+      <c r="E126" s="80">
         <v>0.65559999999999996</v>
       </c>
-      <c r="F126" s="81">
+      <c r="F126" s="80">
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C127" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="D127" s="81">
+      <c r="C127" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" s="80">
         <v>0.20680000000000001</v>
       </c>
-      <c r="E127" s="81">
+      <c r="E127" s="80">
         <v>0.18890000000000001</v>
       </c>
-      <c r="F127" s="81">
+      <c r="F127" s="80">
         <v>2.01E-2</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C128" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="D128" s="81">
+      <c r="C128" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D128" s="80">
         <v>0.93430000000000002</v>
       </c>
-      <c r="E128" s="81">
+      <c r="E128" s="80">
         <v>0.82220000000000004</v>
       </c>
-      <c r="F128" s="81">
+      <c r="F128" s="80">
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C129" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="D129" s="81">
+      <c r="C129" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D129" s="80">
         <v>0.97650000000000003</v>
       </c>
-      <c r="E129" s="81">
+      <c r="E129" s="80">
         <v>0.85560000000000003</v>
       </c>
-      <c r="F129" s="81">
+      <c r="F129" s="80">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C130" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D130" s="81">
+      <c r="C130" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130" s="80">
         <v>0.4819</v>
       </c>
-      <c r="E130" s="81">
+      <c r="E130" s="80">
         <v>0.36670000000000003</v>
       </c>
-      <c r="F130" s="81">
+      <c r="F130" s="80">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C131" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="D131" s="81">
+      <c r="C131" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" s="80">
         <v>0.36380000000000001</v>
       </c>
-      <c r="E131" s="81">
+      <c r="E131" s="80">
         <v>0.26669999999999999</v>
       </c>
-      <c r="F131" s="81">
+      <c r="F131" s="80">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C132" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="D132" s="81">
+      <c r="C132" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" s="80">
         <v>0.15260000000000001</v>
       </c>
-      <c r="E132" s="81">
+      <c r="E132" s="80">
         <v>0.1</v>
       </c>
-      <c r="F132" s="81">
+      <c r="F132" s="80">
         <v>1.44E-2</v>
       </c>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C133" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D133" s="81">
+      <c r="C133" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="D133" s="80">
         <v>0.33150000000000002</v>
       </c>
-      <c r="E133" s="81">
+      <c r="E133" s="80">
         <v>0.21110000000000001</v>
       </c>
-      <c r="F133" s="81">
+      <c r="F133" s="80">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C134" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D134" s="81">
+      <c r="C134" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D134" s="80">
         <v>0.16850000000000001</v>
       </c>
-      <c r="E134" s="81">
+      <c r="E134" s="80">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="F134" s="81">
+      <c r="F134" s="80">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C135" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D135" s="81">
+      <c r="C135" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D135" s="80">
         <v>0.40860000000000002</v>
       </c>
-      <c r="E135" s="81">
+      <c r="E135" s="80">
         <v>0.1</v>
       </c>
-      <c r="F135" s="81">
+      <c r="F135" s="80">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C136" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="D136" s="81">
+      <c r="C136" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D136" s="80">
         <v>0.26340000000000002</v>
       </c>
-      <c r="E136" s="81">
+      <c r="E136" s="80">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="F136" s="81">
+      <c r="F136" s="80">
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C137" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D137" s="81">
+      <c r="C137" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D137" s="80">
         <v>0.16830000000000001</v>
       </c>
-      <c r="E137" s="81">
+      <c r="E137" s="80">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="F137" s="81">
+      <c r="F137" s="80">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C138" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D138" s="81">
+      <c r="C138" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138" s="80">
         <v>0.2097</v>
       </c>
-      <c r="E138" s="81">
+      <c r="E138" s="80">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="F138" s="81">
+      <c r="F138" s="80">
         <v>2.3E-3</v>
       </c>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C139" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D139" s="81">
+      <c r="C139" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" s="80">
         <v>0.1489</v>
       </c>
-      <c r="E139" s="81">
+      <c r="E139" s="80">
         <v>1.11E-2</v>
       </c>
-      <c r="F139" s="81">
+      <c r="F139" s="80">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C140" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D140" s="81">
+      <c r="C140" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140" s="80">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="E140" s="81">
+      <c r="E140" s="80">
         <v>0</v>
       </c>
-      <c r="F140" s="81">
+      <c r="F140" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C141" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D141" s="81">
+      <c r="C141" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D141" s="80">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="E141" s="81">
+      <c r="E141" s="80">
         <v>0</v>
       </c>
-      <c r="F141" s="81">
+      <c r="F141" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C142" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="D142" s="81">
+      <c r="C142" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D142" s="80">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="E142" s="81">
+      <c r="E142" s="80">
         <v>0</v>
       </c>
-      <c r="F142" s="81">
+      <c r="F142" s="80">
         <v>0</v>
       </c>
     </row>
@@ -56455,7 +56530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EB7D9B-F0FC-4905-9707-F0279BB012BD}">
   <dimension ref="B2:H110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
@@ -56471,583 +56546,583 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="B2" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>275</v>
+      <c r="B3" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="54">
+      <c r="B4" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="53">
         <v>856</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="55">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="54">
+      <c r="B5" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="53">
         <v>380</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="56">
         <v>0</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="63">
         <f>D5/D4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="54">
+      <c r="B6" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="53">
         <v>608</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="55">
         <v>3.3E-3</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="54">
+      <c r="B7" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="53">
         <v>688</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="55">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="63">
         <f>D7/D6</f>
         <v>1.7575757575757576</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="54">
+      <c r="B8" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="53">
         <v>798</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="55">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="65">
         <f>D8/D7</f>
         <v>6.6896551724137936</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="54">
+      <c r="B9" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="53">
         <v>752</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="55">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <f>D9/D8</f>
         <v>1.9871134020618557</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B27" s="102" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
+      <c r="B27" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="59" t="s">
+      <c r="B28" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>275</v>
+      <c r="E28" s="58" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="54">
+      <c r="B29" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="53">
         <v>856</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="55">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E29" s="62" t="s">
-        <v>276</v>
+      <c r="E29" s="61" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B30" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="54">
+      <c r="B30" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="53">
         <v>380</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="55">
         <v>1.32E-2</v>
       </c>
-      <c r="E30" s="63">
+      <c r="E30" s="62">
         <f>D30/D29</f>
         <v>11.000000000000002</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B31" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="54">
+      <c r="B31" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="53">
         <v>608</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="55">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="64">
         <f>D31/D30</f>
         <v>1.6212121212121211</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B32" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="54">
+      <c r="B32" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="53">
         <v>688</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="55">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="64">
         <f>D32/D31</f>
         <v>2.514018691588785</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B33" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="54">
+      <c r="B33" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="53">
         <v>798</v>
       </c>
-      <c r="D33" s="56">
+      <c r="D33" s="55">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="64">
         <f>D33/D32</f>
         <v>2.2118959107806688</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B34" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="54">
+      <c r="B34" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="53">
         <v>752</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D34" s="55">
         <v>0.15559999999999999</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="64">
         <f>D34/D33</f>
         <v>1.3075630252100841</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B52" s="102" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
+      <c r="B52" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="D53" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" s="59" t="s">
-        <v>275</v>
+      <c r="B53" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="58" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="54">
+      <c r="B54" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="53">
         <v>856</v>
       </c>
-      <c r="D54" s="67">
+      <c r="D54" s="66">
         <v>0.1028</v>
       </c>
-      <c r="E54" s="61" t="s">
-        <v>276</v>
+      <c r="E54" s="60" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="54">
+      <c r="B55" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="53">
         <v>380</v>
       </c>
-      <c r="D55" s="68">
+      <c r="D55" s="67">
         <v>0.1</v>
       </c>
-      <c r="E55" s="60">
+      <c r="E55" s="59">
         <f>D55/D54</f>
         <v>0.97276264591439687</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="54">
+      <c r="B56" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="53">
         <v>608</v>
       </c>
-      <c r="D56" s="67">
+      <c r="D56" s="66">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="E56" s="60">
+      <c r="E56" s="59">
         <f>D56/D55</f>
         <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="54">
+      <c r="B57" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="53">
         <v>688</v>
       </c>
-      <c r="D57" s="67">
+      <c r="D57" s="66">
         <v>0.1497</v>
       </c>
-      <c r="E57" s="60">
+      <c r="E57" s="59">
         <f>D57/D56</f>
         <v>1.595948827292111</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="54">
+      <c r="B58" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="53">
         <v>798</v>
       </c>
-      <c r="D58" s="67">
+      <c r="D58" s="66">
         <v>0.20300000000000001</v>
       </c>
-      <c r="E58" s="60">
+      <c r="E58" s="59">
         <f>D58/D57</f>
         <v>1.3560454241816968</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B59" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="54">
+      <c r="B59" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="53">
         <v>752</v>
       </c>
-      <c r="D59" s="69">
+      <c r="D59" s="68">
         <v>0.26600000000000001</v>
       </c>
-      <c r="E59" s="60">
+      <c r="E59" s="59">
         <f>D59/D58</f>
         <v>1.3103448275862069</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="E79" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="H79" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C80" s="5">
         <v>856</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="18">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80" s="18">
         <v>2.92E-2</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="18">
         <v>0.1636</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G80" s="18">
         <v>0.79669999999999996</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H80" s="18">
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C81" s="5">
         <v>380</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="18">
         <v>0.15529999999999999</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E81" s="18">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F81" s="18">
         <v>0.48159999999999997</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G81" s="18">
         <v>0.28160000000000002</v>
       </c>
-      <c r="H81" s="19">
+      <c r="H81" s="18">
         <v>0.23680000000000001</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C82" s="5">
         <v>608</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="18">
         <v>0.24179999999999999</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E82" s="18">
         <v>0.13489999999999999</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F82" s="18">
         <v>0.41610000000000003</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G82" s="18">
         <v>0.2072</v>
       </c>
-      <c r="H82" s="19">
+      <c r="H82" s="18">
         <v>0.37659999999999999</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C83" s="5">
         <v>688</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="18">
         <v>0.2006</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E83" s="18">
         <v>0.1497</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F83" s="18">
         <v>0.44479999999999997</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G83" s="18">
         <v>0.2049</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H83" s="18">
         <v>0.3503</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C84" s="5">
         <v>798</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="18">
         <v>0.218</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E84" s="18">
         <v>0.20180000000000001</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F84" s="18">
         <v>0.3947</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G84" s="18">
         <v>0.1855</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H84" s="18">
         <v>0.41980000000000001</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C85" s="5">
         <v>752</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="18">
         <v>0.17549999999999999</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E85" s="18">
         <v>0.24340000000000001</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="18">
         <v>0.38300000000000001</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G85" s="18">
         <v>0.1981</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H85" s="18">
         <v>0.41889999999999999</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B103" s="107" t="s">
-        <v>279</v>
-      </c>
-      <c r="C103" s="107"/>
-      <c r="D103" s="107"/>
+      <c r="B103" s="101" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103" s="101"/>
+      <c r="D103" s="101"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="76" t="s">
-        <v>230</v>
-      </c>
-      <c r="C104" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="D104" s="76" t="s">
-        <v>275</v>
+      <c r="B104" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="D104" s="75" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C105" s="71">
+      <c r="B105" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="70">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="D105" s="72" t="s">
-        <v>276</v>
+      <c r="D105" s="71" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" s="71">
+      <c r="B106" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="70">
         <v>0.23680000000000001</v>
       </c>
-      <c r="D106" s="73">
+      <c r="D106" s="72">
         <f>C106/C105</f>
         <v>5.9647355163727962</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="C107" s="71">
+      <c r="B107" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" s="70">
         <v>0.37659999999999999</v>
       </c>
-      <c r="D107" s="74">
+      <c r="D107" s="73">
         <f>C107/C106</f>
         <v>1.5903716216216215</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="C108" s="71">
+      <c r="B108" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="70">
         <v>0.3503</v>
       </c>
-      <c r="D108" s="74">
+      <c r="D108" s="73">
         <f>C108/C107</f>
         <v>0.9301646309081254</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C109" s="71">
+      <c r="B109" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="70">
         <v>0.41980000000000001</v>
       </c>
-      <c r="D109" s="74">
+      <c r="D109" s="73">
         <f>C109/C108</f>
         <v>1.1984013702540679</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C110" s="71">
+      <c r="B110" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="70">
         <v>0.41889999999999999</v>
       </c>
-      <c r="D110" s="75">
+      <c r="D110" s="74">
         <f>C110/C109</f>
         <v>0.99785612196283946</v>
       </c>
@@ -57158,223 +57233,224 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11B4E9F-2880-45F2-9D62-654BB81B2E06}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="82"/>
-    <col min="2" max="2" width="12.88671875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="106.77734375" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="82"/>
+    <col min="1" max="1" width="8.88671875" style="81"/>
+    <col min="2" max="2" width="12.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="106.77734375" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="81"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>281</v>
+      <c r="B2" s="110" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="11">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>287</v>
-      </c>
+      <c r="C3" s="109" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="109"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="11">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>289</v>
+      <c r="C4" s="109" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="11">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>302</v>
+      <c r="C5" s="109" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>303</v>
+      <c r="C6" s="109" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="11">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>304</v>
+      <c r="C7" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="109" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="11">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>294</v>
+      <c r="C8" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="11">
+      <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="109" t="s">
         <v>295</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
+      <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="109" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="109" t="s">
         <v>296</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
+      <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>300</v>
+      <c r="C11" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="109" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>305</v>
+      <c r="C12" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="109" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
+      <c r="B13" s="6">
         <v>11</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="109" t="s">
         <v>306</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="11">
+      <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="109" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="109" t="s">
         <v>307</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
+      <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>311</v>
+      <c r="C15" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="109" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B16" s="11">
+      <c r="B16" s="6">
         <v>14</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>313</v>
+      <c r="C16" s="109" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
+      <c r="B17" s="6">
         <v>15</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>315</v>
+      <c r="C17" s="109" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" s="109" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="11">
+      <c r="B18" s="6">
         <v>16</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>317</v>
+      <c r="C18" s="109" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
+      <c r="B19" s="6">
         <v>17</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="109" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="109" t="s">
         <v>318</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="11">
+      <c r="B20" s="6">
         <v>18</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="109" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="109" t="s">
         <v>319</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -57387,7 +57463,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57401,27 +57477,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>324</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>325</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2">
         <v>2.35E-2</v>
@@ -57435,10 +57511,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3">
         <v>5.5899999999999998E-2</v>
@@ -57452,10 +57528,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>0.1842</v>
@@ -57469,10 +57545,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>6.5699999999999995E-2</v>
@@ -57486,10 +57562,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6">
         <v>0.16139999999999999</v>
@@ -57503,10 +57579,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7">
         <v>0.14330000000000001</v>
@@ -57520,10 +57596,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8">
         <v>0.19550000000000001</v>
@@ -57537,10 +57613,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9">
         <v>0.1019</v>
@@ -57554,10 +57630,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10">
         <v>0.59140000000000004</v>
@@ -57571,10 +57647,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11">
         <v>0.10290000000000001</v>
@@ -57588,10 +57664,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C12">
         <v>8.9399999999999993E-2</v>
@@ -57605,10 +57681,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C13">
         <v>0.28470000000000001</v>
@@ -57622,10 +57698,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14">
         <v>0.12889999999999999</v>
@@ -57639,10 +57715,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15">
         <v>0.1071</v>
@@ -57656,10 +57732,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C16">
         <v>0.18129999999999999</v>
@@ -57673,10 +57749,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17">
         <v>0.59040000000000004</v>
@@ -57690,10 +57766,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18">
         <v>0.20680000000000001</v>
@@ -57707,10 +57783,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19">
         <v>0.93430000000000002</v>
@@ -57724,10 +57800,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C20">
         <v>0.97650000000000003</v>
@@ -57741,10 +57817,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C21">
         <v>0.4819</v>
@@ -57758,10 +57834,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C22">
         <v>0.36380000000000001</v>
@@ -57775,10 +57851,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C23">
         <v>0.15260000000000001</v>
@@ -57792,10 +57868,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C24">
         <v>0.33150000000000002</v>
@@ -57809,10 +57885,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25">
         <v>0.16850000000000001</v>
@@ -57826,10 +57902,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26">
         <v>0.40860000000000002</v>
@@ -57843,10 +57919,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C27">
         <v>0.26340000000000002</v>
@@ -57860,10 +57936,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C28">
         <v>0.16830000000000001</v>
@@ -57877,10 +57953,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29">
         <v>0.2097</v>
@@ -57894,10 +57970,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30">
         <v>0.1489</v>
@@ -57911,10 +57987,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C31">
         <v>9.3100000000000002E-2</v>
@@ -57928,10 +58004,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32">
         <v>5.4000000000000003E-3</v>
@@ -57945,10 +58021,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C33">
         <v>7.9399999999999998E-2</v>
@@ -57967,16 +58043,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BE71E7-EFAD-421B-B076-5D095C2F7907}">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" style="2" customWidth="1"/>
@@ -57984,276 +58061,438 @@
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B1" s="106" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+    </row>
+    <row r="2" spans="2:7" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
+      <c r="G2" s="104" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>51</v>
+      <c r="G4" s="105" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>67</v>
+      <c r="G5" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>49</v>
+      <c r="F10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>67</v>
+      <c r="G11" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>67</v>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
+      <c r="B15" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+    </row>
+    <row r="16" spans="2:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="104" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -58264,404 +58503,404 @@
   </sheetPr>
   <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="11"/>
-    <col min="3" max="3" width="13.33203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="10"/>
+    <col min="3" max="3" width="13.33203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="92.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="92.33203125" style="15" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B1" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>95</v>
+      <c r="B2" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="47">
+      <c r="B3" s="46">
         <v>1</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="47">
         <v>45821</v>
       </c>
-      <c r="D3" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>243</v>
+      <c r="D3" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <v>2</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="47">
         <v>45821</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>244</v>
+      <c r="D4" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <v>3</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <v>45821</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>245</v>
+      <c r="D5" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <v>4</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <v>45821</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>246</v>
+      <c r="D6" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <v>5</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <v>45821</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>247</v>
+      <c r="D7" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="47">
+      <c r="B8" s="46">
         <v>6</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="47">
         <v>45821</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>323</v>
+      <c r="D8" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="47">
+      <c r="B9" s="46">
         <v>7</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="47">
         <v>45821</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>248</v>
+      <c r="D9" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <v>8</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="47">
         <v>45821</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>249</v>
+      <c r="D10" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="47">
+      <c r="B11" s="46">
         <v>9</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="47">
         <v>45822</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>167</v>
+      <c r="D11" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <v>10</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="47">
         <v>45822</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>250</v>
+      <c r="D12" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <v>11</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="47">
         <v>45822</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>166</v>
+      <c r="D13" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="47">
+      <c r="B14" s="46">
         <v>12</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="47">
         <v>45822</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>251</v>
+      <c r="D14" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="B15" s="47">
+      <c r="B15" s="46">
         <v>13</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="47">
         <v>45822</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>324</v>
+      <c r="D15" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="B16" s="47">
+      <c r="B16" s="46">
         <v>14</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="47">
         <v>45822</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>252</v>
+      <c r="D16" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="47">
+      <c r="B17" s="46">
         <v>15</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="47">
         <v>45823</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>253</v>
+      <c r="D17" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="47">
+      <c r="B18" s="46">
         <v>16</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="47">
         <v>45823</v>
       </c>
-      <c r="D18" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>254</v>
+      <c r="D18" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="47">
+      <c r="B19" s="46">
         <v>17</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="47">
         <v>45823</v>
       </c>
-      <c r="D19" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>255</v>
+      <c r="D19" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="B20" s="47">
+      <c r="B20" s="46">
         <v>18</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="47">
         <v>45823</v>
       </c>
-      <c r="D20" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>325</v>
+      <c r="D20" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="47">
+      <c r="B21" s="46">
         <v>19</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="47">
         <v>45824</v>
       </c>
-      <c r="D21" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>256</v>
+      <c r="D21" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="47">
+      <c r="B22" s="46">
         <v>20</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="47">
         <v>45824</v>
       </c>
-      <c r="D22" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>257</v>
+      <c r="D22" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="47">
+      <c r="B23" s="46">
         <v>21</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="47">
         <v>45824</v>
       </c>
-      <c r="D23" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>258</v>
+      <c r="D23" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="47">
+      <c r="B24" s="46">
         <v>22</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="47">
         <v>45824</v>
       </c>
-      <c r="D24" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>259</v>
+      <c r="D24" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="47">
+      <c r="B25" s="46">
         <v>23</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="47">
         <v>45824</v>
       </c>
-      <c r="D25" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>260</v>
+      <c r="D25" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="47">
+      <c r="B26" s="46">
         <v>24</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="47">
         <v>45824</v>
       </c>
-      <c r="D26" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>261</v>
+      <c r="D26" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="47">
+      <c r="B27" s="46">
         <v>25</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="47">
         <v>45824</v>
       </c>
-      <c r="D27" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>262</v>
+      <c r="D27" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="47">
+      <c r="B28" s="46">
         <v>26</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="47">
         <v>45824</v>
       </c>
-      <c r="D28" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>263</v>
+      <c r="D28" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -58677,7 +58916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67A04FD-F1F5-41CF-A85B-7876F5D9F697}">
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -58697,36 +58936,36 @@
     <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:11" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>274</v>
+      <c r="J2" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
@@ -58736,14 +58975,14 @@
       <c r="C3" s="6">
         <v>249</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f>C3/B3</f>
         <v>4.8727984344422701E-2</v>
       </c>
       <c r="E3" s="6">
         <v>159</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f>E3/B3</f>
         <v>3.1115459882583171E-2</v>
       </c>
@@ -58751,164 +58990,164 @@
         <f>C3-E3</f>
         <v>90</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <f>G3/B3</f>
         <v>1.7612524461839529E-2</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="J3" s="6">
         <v>1027</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <f>J3/B3</f>
         <v>0.20097847358121332</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
+      <c r="B5" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C18" s="2">
         <v>90</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="51">
         <f>C18/C20</f>
         <v>0.36144578313253012</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C19" s="2">
         <v>159</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="51">
         <f>C19/C20</f>
         <v>0.63855421686746983</v>
       </c>
@@ -58927,19 +59166,19 @@
     </row>
     <row r="34" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E34"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C35" s="6">
         <v>4082</v>
@@ -58950,7 +59189,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C36" s="6">
         <v>1027</v>
@@ -58973,7 +59212,7 @@
   <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58985,43 +59224,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="J2" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5">
         <v>0.08</v>
@@ -59054,12 +59293,12 @@
         <v>97.5</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="5">
         <v>55.12</v>
@@ -59092,15 +59331,15 @@
         <v>163.17500000000001</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5">
         <v>10.3</v>
@@ -59133,15 +59372,15 @@
         <v>48.25</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" s="5">
         <v>10.3</v>
@@ -59174,21 +59413,21 @@
         <v>47.449999999999996</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59209,7 +59448,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="18" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18" style="11" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" style="9" customWidth="1"/>
@@ -59218,140 +59457,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="87" t="s">
+      <c r="A1" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="85" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="88" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="85">
+      <c r="B2" s="82">
         <v>45820</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="82">
         <v>45821</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="85">
+      <c r="B4" s="82">
         <v>45821</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="82">
         <v>45821</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="85">
+      <c r="B6" s="82">
         <v>45821</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="82">
         <v>45821</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -59359,20 +59598,20 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="82">
         <v>45821</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -59396,7 +59635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323CD535-6850-4085-93EA-E5C42E768E49}">
   <dimension ref="B2:X76"/>
   <sheetViews>
-    <sheetView topLeftCell="F12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="U27" sqref="U27:X29"/>
     </sheetView>
   </sheetViews>
@@ -59415,200 +59654,200 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="B2" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>138</v>
+      <c r="G3" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C4" s="5">
         <v>324</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>0</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" s="5">
         <v>1075</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>0.26340000000000002</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>5.5599999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" s="5">
         <v>1162</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>0.28470000000000001</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>3.27E-2</v>
       </c>
       <c r="F6" s="5">
         <v>38</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>0.42220000000000002</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" s="5">
         <v>740</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>0.18129999999999999</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>2.8400000000000002E-2</v>
       </c>
       <c r="F7" s="5">
         <v>21</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>0.23330000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="5">
         <v>416</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>0.1019</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>3.3700000000000001E-2</v>
       </c>
       <c r="F8" s="5">
         <v>14</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>0.15559999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" s="5">
         <v>365</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>3.2899999999999999E-2</v>
       </c>
       <c r="F9" s="5">
         <v>12</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>0.1333</v>
       </c>
     </row>
     <row r="27" spans="2:24" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B27" s="95" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="U27" s="78" t="s">
-        <v>282</v>
-      </c>
-      <c r="V27" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="W27" s="79" t="s">
+      <c r="B27" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="U27" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="V27" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="W27" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="X27" s="78" t="s">
         <v>133</v>
-      </c>
-      <c r="X27" s="79" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>138</v>
+      <c r="G28" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="U28" t="s">
-        <v>284</v>
-      </c>
-      <c r="V28" s="18">
+        <v>282</v>
+      </c>
+      <c r="V28" s="17">
         <f>X28/W28</f>
         <v>1.718112987769365E-2</v>
       </c>
@@ -59621,27 +59860,27 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C29" s="5">
         <v>623</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>0.15260000000000001</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>1.44E-2</v>
       </c>
       <c r="F29" s="5">
         <v>9</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="25">
         <v>0.1</v>
       </c>
       <c r="U29" t="s">
-        <v>283</v>
-      </c>
-      <c r="V29" s="18">
+        <v>281</v>
+      </c>
+      <c r="V29" s="17">
         <f>X29/W29</f>
         <v>4.7839506172839504E-2</v>
       </c>
@@ -59654,231 +59893,231 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C30" s="5">
         <v>1967</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>0.4819</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="F30" s="5">
         <v>33</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <v>0.36670000000000003</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C31" s="5">
         <v>844</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>0.20680000000000001</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>2.01E-2</v>
       </c>
       <c r="F31" s="5">
         <v>17</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="18">
         <v>0.18890000000000001</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="V31" s="60">
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="V31" s="59">
         <f>V29/V28</f>
         <v>2.7844214270767944</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C32" s="5">
         <v>420</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>0.10290000000000001</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>3.3300000000000003E-2</v>
       </c>
       <c r="F32" s="5">
         <v>14</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="18">
         <v>0.15559999999999999</v>
       </c>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C33" s="5">
         <v>228</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>7.46E-2</v>
       </c>
       <c r="F33" s="5">
         <v>17</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="18">
         <v>0.18890000000000001</v>
       </c>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
     </row>
     <row r="51" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B51" s="97" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
+      <c r="B51" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
     </row>
     <row r="52" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" s="29" t="s">
+      <c r="B52" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>138</v>
+      <c r="G52" s="28" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="28">
+      <c r="B53" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="27">
         <v>3986</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="29">
         <v>0.97650000000000003</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="29">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="27">
         <v>77</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="29">
         <v>0.85560000000000003</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="28">
+      <c r="B54" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="27">
         <v>96</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="29">
         <v>2.35E-2</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="29">
         <v>0.13539999999999999</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="27">
         <v>13</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="29">
         <v>0.1444</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B73" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="C73" s="95"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="95"/>
-      <c r="F73" s="95"/>
-      <c r="G73" s="95"/>
+      <c r="B73" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="89"/>
     </row>
     <row r="74" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C74" s="17" t="s">
+      <c r="B74" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E74" s="17" t="s">
+      <c r="F74" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F74" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>138</v>
+      <c r="G74" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75" s="5">
         <v>268</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="18">
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="E75" s="5">
         <v>16</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="18">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G75" s="18">
         <v>0.17780000000000001</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C76" s="5">
         <v>3814</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="18">
         <v>0.93430000000000002</v>
       </c>
       <c r="E76" s="5">
         <v>74</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="18">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G76" s="18">
         <v>0.82220000000000004</v>
       </c>
     </row>
@@ -59901,8 +60140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE4173D-C495-4600-882F-269647749FE3}">
   <dimension ref="B2:H137"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136:F137"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59915,622 +60154,622 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
+      <c r="B2" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>138</v>
+      <c r="G3" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="5">
         <v>2384</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>0.58399999999999996</v>
       </c>
       <c r="E4" s="5">
         <v>48</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>2.01E-2</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>0.5333</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="5">
         <v>1698</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>0.41599999999999998</v>
       </c>
       <c r="E5" s="5">
         <v>42</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>2.47E-2</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>0.4667</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B22" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
+      <c r="B22" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>141</v>
+      <c r="G23" s="21" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="23">
+      <c r="B24" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="22">
         <v>856</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="23">
         <v>0.2097</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>2</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <v>2.3E-3</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="23">
+      <c r="B25" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="22">
         <v>380</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>0</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <v>0</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="23">
+      <c r="B26" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="22">
         <v>608</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>0.1489</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>1</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <v>1.11E-2</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="23">
+      <c r="B27" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="22">
         <v>688</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="23">
         <v>0.16850000000000001</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>7</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="23">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="23">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="H27" s="20"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="23">
+      <c r="B28" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="22">
         <v>798</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>0.19550000000000001</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>27</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="24">
         <v>0.3</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="23">
+      <c r="B29" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="22">
         <v>752</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="23">
         <v>0.1842</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>53</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="23">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="23">
         <v>0.58889999999999998</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="47" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B47" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
+      <c r="B47" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
     </row>
     <row r="48" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>141</v>
+      <c r="G48" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C49" s="5">
         <v>22</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="25">
         <v>0</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C50" s="5">
         <v>437</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="18">
         <v>0.1071</v>
       </c>
       <c r="E50" s="5">
         <v>13</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="18">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="18">
         <v>0.1444</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51" s="5">
         <v>526</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="18">
         <v>0.12889999999999999</v>
       </c>
       <c r="E51" s="5">
         <v>16</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="18">
         <v>3.04E-2</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="18">
         <v>0.17780000000000001</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C52" s="5">
         <v>687</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="18">
         <v>0.16830000000000001</v>
       </c>
       <c r="E52" s="5">
         <v>2</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="18">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="18">
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C53" s="5">
         <v>2410</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="18">
         <v>0.59040000000000004</v>
       </c>
       <c r="E53" s="5">
         <v>59</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="18">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="18">
         <v>0.65559999999999996</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B71" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99"/>
+      <c r="B71" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
     </row>
     <row r="72" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="17" t="s">
+      <c r="B72" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" s="17" t="s">
+      <c r="F72" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F72" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>141</v>
+      <c r="G72" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C73" s="5">
         <v>2056</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="18">
         <v>0.50370000000000004</v>
       </c>
       <c r="E73" s="5">
         <v>48</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F73" s="18">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G73" s="18">
         <v>0.5333</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C74" s="5">
         <v>2026</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="18">
         <v>0.49630000000000002</v>
       </c>
       <c r="E74" s="5">
         <v>42</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="18">
         <v>2.07E-2</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G74" s="18">
         <v>0.4667</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B92" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="C92" s="95"/>
-      <c r="D92" s="95"/>
-      <c r="E92" s="95"/>
-      <c r="F92" s="95"/>
-      <c r="G92" s="95"/>
+      <c r="B92" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="89"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="89"/>
+      <c r="F92" s="89"/>
+      <c r="G92" s="89"/>
     </row>
     <row r="93" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B93" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C93" s="17" t="s">
+      <c r="B93" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D93" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E93" s="17" t="s">
+      <c r="F93" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F93" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>141</v>
+      <c r="G93" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C94" s="5">
         <v>2414</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="18">
         <v>0.59140000000000004</v>
       </c>
       <c r="E94" s="5">
         <v>81</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F94" s="18">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="G94" s="26">
+      <c r="G94" s="25">
         <v>0.9</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C95" s="5">
         <v>1668</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="18">
         <v>0.40860000000000002</v>
       </c>
       <c r="E95" s="5">
         <v>9</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F95" s="18">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="G95" s="26">
+      <c r="G95" s="25">
         <v>0.1</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B113" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="C113" s="96"/>
-      <c r="D113" s="96"/>
-      <c r="E113" s="96"/>
-      <c r="F113" s="96"/>
-      <c r="G113" s="96"/>
+      <c r="B113" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C113" s="90"/>
+      <c r="D113" s="90"/>
+      <c r="E113" s="90"/>
+      <c r="F113" s="90"/>
+      <c r="G113" s="90"/>
     </row>
     <row r="114" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B114" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C114" s="17" t="s">
+      <c r="B114" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D114" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E114" s="17" t="s">
+      <c r="F114" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F114" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G114" s="17" t="s">
-        <v>141</v>
+      <c r="G114" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C115" s="5">
         <v>585</v>
       </c>
-      <c r="D115" s="19">
+      <c r="D115" s="18">
         <v>0.14330000000000001</v>
       </c>
       <c r="E115" s="5">
         <v>22</v>
       </c>
-      <c r="F115" s="19">
+      <c r="F115" s="18">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="G115" s="19">
+      <c r="G115" s="18">
         <v>0.24440000000000001</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C116" s="5">
         <v>659</v>
       </c>
-      <c r="D116" s="19">
+      <c r="D116" s="18">
         <v>0.16139999999999999</v>
       </c>
       <c r="E116" s="5">
         <v>25</v>
       </c>
-      <c r="F116" s="19">
+      <c r="F116" s="18">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="G116" s="19">
+      <c r="G116" s="18">
         <v>0.27779999999999999</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C117" s="5">
         <v>1353</v>
       </c>
-      <c r="D117" s="19">
+      <c r="D117" s="18">
         <v>0.33150000000000002</v>
       </c>
       <c r="E117" s="5">
         <v>19</v>
       </c>
-      <c r="F117" s="19">
+      <c r="F117" s="18">
         <v>1.4E-2</v>
       </c>
-      <c r="G117" s="19">
+      <c r="G117" s="18">
         <v>0.21110000000000001</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C118" s="5">
         <v>1485</v>
       </c>
-      <c r="D118" s="19">
+      <c r="D118" s="18">
         <v>0.36380000000000001</v>
       </c>
       <c r="E118" s="5">
         <v>24</v>
       </c>
-      <c r="F118" s="19">
+      <c r="F118" s="18">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="G118" s="19">
+      <c r="G118" s="18">
         <v>0.26669999999999999</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E136" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F136" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D137">
         <f>(C115+C116)/SUM(C115:C118)</f>
@@ -60566,7 +60805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45B4FD2-6D82-40C2-AE53-A6BA1DA44513}">
   <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -60601,133 +60840,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="100" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
         <v>203</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>204</v>
       </c>
-      <c r="D2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M2" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="N2" s="100"/>
-      <c r="P2" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="105"/>
+      <c r="M2" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="N2" s="94"/>
+      <c r="P2" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
     </row>
     <row r="3" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E3">
         <v>81</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q3" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="M3" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>216</v>
+      <c r="R3" s="37" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E4">
         <v>2333</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>209</v>
+      <c r="G4" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="H4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" t="s">
         <v>208</v>
       </c>
-      <c r="J4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="M4" s="34">
+      <c r="L4" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","ever_married","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","ever_married","category","married")/GETPIVOTDATA("count",$G$3,"feature","ever_married")</f>
         <v>53.223909848113671</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","ever_married","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","ever_married","category","married")/GETPIVOTDATA("count",$G$3,"feature","ever_married")</f>
         <v>2360.7760901518864</v>
       </c>
-      <c r="P4" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="37">
+      <c r="P4" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="36">
         <f>CHITEST(H6:I7,M4:N5)</f>
         <v>1.7143999237010973E-9</v>
       </c>
-      <c r="R4" s="35" t="s">
-        <v>110</v>
+      <c r="R4" s="34" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>9</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>34</v>
+      <c r="G5" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="H5">
         <v>90</v>
@@ -60738,43 +60977,43 @@
       <c r="J5">
         <v>4082</v>
       </c>
-      <c r="L5" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="M5" s="34">
+      <c r="L5" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","ever_married","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","ever_married","category","never married")/GETPIVOTDATA("count",$G$3,"feature","ever_married")</f>
         <v>36.776090151886329</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","ever_married","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","ever_married","category","never married")/GETPIVOTDATA("count",$G$3,"feature","ever_married")</f>
         <v>1631.2239098481136</v>
       </c>
-      <c r="P5" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="37">
+      <c r="P5" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="36">
         <f>_xlfn.CHISQ.TEST(H9:I10,M7:N8)</f>
         <v>0.32380549991782243</v>
       </c>
-      <c r="R5" s="35" t="s">
-        <v>217</v>
+      <c r="R5" s="34" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E6">
         <v>1659</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>162</v>
+      <c r="G6" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="H6">
         <v>81</v>
@@ -60785,35 +61024,35 @@
       <c r="J6">
         <v>2414</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="P6" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="37">
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="P6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="36">
         <f>_xlfn.CHISQ.TEST(H12:I13,M10:N11)</f>
         <v>1.9310731870592928E-14</v>
       </c>
-      <c r="R6" s="35" t="s">
-        <v>110</v>
+      <c r="R6" s="34" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>48</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>163</v>
+      <c r="G7" s="32" t="s">
+        <v>161</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -60824,43 +61063,43 @@
       <c r="J7">
         <v>1668</v>
       </c>
-      <c r="L7" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="M7" s="34">
+      <c r="L7" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","gender","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","gender","category","female")/GETPIVOTDATA("count",$G$3,"feature","gender")</f>
         <v>52.562469377756003</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","gender","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","gender","category","female")/GETPIVOTDATA("count",$G$3,"feature","gender")</f>
         <v>2331.4375306222441</v>
       </c>
-      <c r="P7" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="37">
+      <c r="P7" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="36">
         <f>_xlfn.CHISQ.TEST(H15:I16,M13:N14)</f>
         <v>1.4064432652271219E-5</v>
       </c>
-      <c r="R7" s="35" t="s">
-        <v>110</v>
+      <c r="R7" s="34" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E8">
         <v>2336</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>27</v>
+      <c r="G8" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="H8">
         <v>90</v>
@@ -60871,43 +61110,43 @@
       <c r="J8">
         <v>4082</v>
       </c>
-      <c r="L8" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="34">
+      <c r="L8" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","gender","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","gender","category","male")/GETPIVOTDATA("count",$G$3,"feature","gender")</f>
         <v>37.437530622243997</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","gender","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","gender","category","male")/GETPIVOTDATA("count",$G$3,"feature","gender")</f>
         <v>1660.5624693777561</v>
       </c>
-      <c r="P8" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="37">
+      <c r="P8" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="36">
         <f>_xlfn.CHISQ.TEST(H18:I19,M16:N17)</f>
         <v>0.56931743341868302</v>
       </c>
-      <c r="R8" s="35" t="s">
-        <v>217</v>
+      <c r="R8" s="34" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E9">
         <v>42</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>131</v>
+      <c r="G9" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="H9">
         <v>48</v>
@@ -60918,35 +61157,35 @@
       <c r="J9">
         <v>2384</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="P9" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="37">
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="P9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="36">
         <f>_xlfn.CHISQ.TEST(H21:I24,M19:N22)</f>
         <v>1.2205665333268156E-4</v>
       </c>
-      <c r="R9" s="35" t="s">
-        <v>110</v>
+      <c r="R9" s="34" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E10">
         <v>1656</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>132</v>
+      <c r="G10" s="32" t="s">
+        <v>130</v>
       </c>
       <c r="H10">
         <v>42</v>
@@ -60957,43 +61196,43 @@
       <c r="J10">
         <v>1698</v>
       </c>
-      <c r="L10" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="M10" s="34">
+      <c r="L10" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="M10" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","heart_disease","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","heart_disease","category","heart disease")/GETPIVOTDATA("count",$G$3,"feature","heart_disease")</f>
         <v>2.1166095051445368</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","heart_disease","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","heart_disease","category","heart disease")/GETPIVOTDATA("count",$G$3,"feature","heart_disease")</f>
         <v>93.883390494855462</v>
       </c>
-      <c r="P10" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="37">
+      <c r="P10" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="36">
         <f>_xlfn.CHISQ.TEST(H26:I30,M24:N28)</f>
         <v>4.2062562758702219E-3</v>
       </c>
-      <c r="R10" s="35" t="s">
-        <v>110</v>
+      <c r="R10" s="34" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E11">
         <v>13</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>33</v>
+      <c r="G11" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="H11">
         <v>90</v>
@@ -61004,33 +61243,33 @@
       <c r="J11">
         <v>4082</v>
       </c>
-      <c r="L11" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="M11" s="34">
+      <c r="L11" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","heart_disease","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","heart_disease","category","no heart disease")/GETPIVOTDATA("count",$G$3,"feature","heart_disease")</f>
         <v>87.883390494855462</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","heart_disease","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","heart_disease","category","no heart disease")/GETPIVOTDATA("count",$G$3,"feature","heart_disease")</f>
         <v>3898.1166095051444</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E12">
         <v>83</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>195</v>
+      <c r="G12" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="H12">
         <v>13</v>
@@ -61041,29 +61280,29 @@
       <c r="J12">
         <v>96</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="P12" s="106" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q12" s="106"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="P12" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q12" s="100"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E13">
         <v>77</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>194</v>
+      <c r="G13" s="32" t="s">
+        <v>192</v>
       </c>
       <c r="H13">
         <v>77</v>
@@ -61074,35 +61313,35 @@
       <c r="J13">
         <v>3986</v>
       </c>
-      <c r="L13" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="34">
+      <c r="L13" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","hypertension","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","hypertension","category","hypertension")/GETPIVOTDATA("count",$G$3,"feature","hypertension")</f>
         <v>5.9088682018618321</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","hypertension","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","hypertension","category","hypertension")/GETPIVOTDATA("count",$G$3,"feature","hypertension")</f>
         <v>262.09113179813818</v>
       </c>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E14">
         <v>3909</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>32</v>
+      <c r="G14" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="H14">
         <v>90</v>
@@ -61113,35 +61352,35 @@
       <c r="J14">
         <v>4082</v>
       </c>
-      <c r="L14" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="M14" s="34">
+      <c r="L14" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" s="33">
         <f>(GETPIVOTDATA("count",$G$3,"feature","hypertension","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","hypertension","category","no hypertension"))/GETPIVOTDATA("count",$G$3,"feature","hypertension")</f>
         <v>84.091131798138164</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","hypertension","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","hypertension","category","no hypertension")/GETPIVOTDATA("count",$G$3,"feature","hypertension")</f>
         <v>3729.9088682018619</v>
       </c>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E15">
         <v>16</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>32</v>
+      <c r="G15" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="H15">
         <v>16</v>
@@ -61152,27 +61391,27 @@
       <c r="J15">
         <v>268</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E16">
         <v>252</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>200</v>
+      <c r="G16" s="32" t="s">
+        <v>198</v>
       </c>
       <c r="H16">
         <v>74</v>
@@ -61183,35 +61422,35 @@
       <c r="J16">
         <v>3814</v>
       </c>
-      <c r="L16" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="M16" s="34">
+      <c r="L16" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","residence_type","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","residence_type","category","rural")/GETPIVOTDATA("count",$G$3,"feature","residence_type")</f>
         <v>44.669279764821169</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","residence_type","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","residence_type","category","rural")/GETPIVOTDATA("count",$G$3,"feature","residence_type")</f>
         <v>1981.3307202351789</v>
       </c>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E17">
         <v>74</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>36</v>
+      <c r="G17" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="H17">
         <v>90</v>
@@ -61222,35 +61461,35 @@
       <c r="J17">
         <v>4082</v>
       </c>
-      <c r="L17" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="M17" s="34">
+      <c r="L17" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","residence_type","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","residence_type","category","urban")/GETPIVOTDATA("count",$G$3,"feature","residence_type")</f>
         <v>45.330720235178831</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","residence_type","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","residence_type","category","urban")/GETPIVOTDATA("count",$G$3,"feature","residence_type")</f>
         <v>2010.6692797648211</v>
       </c>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E18">
         <v>3740</v>
       </c>
-      <c r="G18" s="33" t="s">
-        <v>159</v>
+      <c r="G18" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="H18">
         <v>42</v>
@@ -61261,27 +61500,27 @@
       <c r="J18">
         <v>2026</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>158</v>
+      <c r="G19" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="H19">
         <v>48</v>
@@ -61292,35 +61531,35 @@
       <c r="J19">
         <v>2056</v>
       </c>
-      <c r="L19" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="M19" s="34">
+      <c r="L19" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","smoking_status","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","smoking_status","category","formerly smoked")/GETPIVOTDATA("count",$G$3,"feature","smoking_status")</f>
         <v>12.898089171974522</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","smoking_status","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","smoking_status","category","formerly smoked")/GETPIVOTDATA("count",$G$3,"feature","smoking_status")</f>
         <v>572.10191082802544</v>
       </c>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E20">
         <v>1984</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>39</v>
+      <c r="G20" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="H20">
         <v>90</v>
@@ -61331,33 +61570,33 @@
       <c r="J20">
         <v>4082</v>
       </c>
-      <c r="L20" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="M20" s="34">
+      <c r="L20" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","smoking_status","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","smoking_status","category","never smoked")/GETPIVOTDATA("count",$G$3,"feature","smoking_status")</f>
         <v>32.741303282704557</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","smoking_status","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","smoking_status","category","never smoked")/GETPIVOTDATA("count",$G$3,"feature","smoking_status")</f>
         <v>1452.2586967172954</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E21">
         <v>48</v>
       </c>
-      <c r="G21" s="33" t="s">
-        <v>168</v>
+      <c r="G21" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="H21">
         <v>22</v>
@@ -61368,37 +61607,37 @@
       <c r="J21">
         <v>585</v>
       </c>
-      <c r="L21" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="M21" s="34">
+      <c r="L21" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","smoking_status","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","smoking_status","category","smokes")/GETPIVOTDATA("count",$G$3,"feature","smoking_status")</f>
         <v>14.529642332190102</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","smoking_status","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","smoking_status","category","smokes")/GETPIVOTDATA("count",$G$3,"feature","smoking_status")</f>
         <v>644.47035766780994</v>
       </c>
-      <c r="P21" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q21" s="102"/>
+      <c r="P21" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q21" s="96"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E22">
         <v>2008</v>
       </c>
-      <c r="G22" s="33" t="s">
-        <v>169</v>
+      <c r="G22" s="32" t="s">
+        <v>167</v>
       </c>
       <c r="H22">
         <v>24</v>
@@ -61409,39 +61648,39 @@
       <c r="J22">
         <v>1485</v>
       </c>
-      <c r="L22" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="M22" s="34">
+      <c r="L22" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","smoking_status","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","smoking_status","category","unknown")/GETPIVOTDATA("count",$G$3,"feature","smoking_status")</f>
         <v>29.830965213130817</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N22" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","smoking_status","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","smoking_status","category","unknown")/GETPIVOTDATA("count",$G$3,"feature","smoking_status")</f>
         <v>1323.1690347868691</v>
       </c>
-      <c r="P22" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q22" s="40" t="s">
-        <v>213</v>
+      <c r="P22" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q22" s="39" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
-      <c r="G23" s="33" t="s">
-        <v>171</v>
+      <c r="G23" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="H23">
         <v>25</v>
@@ -61452,31 +61691,31 @@
       <c r="J23">
         <v>659</v>
       </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="P23" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="39">
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="P23" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="38">
         <v>1.06E-6</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E24">
         <v>563</v>
       </c>
-      <c r="G24" s="33" t="s">
-        <v>170</v>
+      <c r="G24" s="32" t="s">
+        <v>168</v>
       </c>
       <c r="H24">
         <v>19</v>
@@ -61487,39 +61726,39 @@
       <c r="J24">
         <v>1353</v>
       </c>
-      <c r="L24" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="M24" s="34">
+      <c r="L24" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="M24" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","children")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>15.146986771190592</v>
       </c>
-      <c r="N24" s="34">
+      <c r="N24" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","children")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>671.85301322880946</v>
       </c>
-      <c r="P24" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="35">
+      <c r="P24" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="34">
         <v>1E-4</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
-      <c r="G25" s="32" t="s">
-        <v>35</v>
+      <c r="G25" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="H25">
         <v>90</v>
@@ -61530,33 +61769,33 @@
       <c r="J25">
         <v>4082</v>
       </c>
-      <c r="L25" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="M25" s="34">
+      <c r="L25" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","govt_job")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>11.597256246937775</v>
       </c>
-      <c r="N25" s="34">
+      <c r="N25" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","govt_job")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>514.40274375306217</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E26">
         <v>1461</v>
       </c>
-      <c r="G26" s="33" t="s">
-        <v>154</v>
+      <c r="G26" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -61567,38 +61806,38 @@
       <c r="J26">
         <v>687</v>
       </c>
-      <c r="L26" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="M26" s="34">
+      <c r="L26" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","never_worked")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>0.48505634492895638</v>
       </c>
-      <c r="N26" s="34">
+      <c r="N26" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","never_worked")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>21.514943655071043</v>
       </c>
-      <c r="P26" s="101" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
+      <c r="P26" s="95" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E27">
         <v>25</v>
       </c>
-      <c r="G27" s="33" t="s">
-        <v>152</v>
+      <c r="G27" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="H27">
         <v>16</v>
@@ -61609,36 +61848,36 @@
       <c r="J27">
         <v>526</v>
       </c>
-      <c r="L27" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="M27" s="34">
+      <c r="L27" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="M27" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","private")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>53.135717785399315</v>
       </c>
-      <c r="N27" s="34">
+      <c r="N27" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","private")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>2356.8642822146007</v>
       </c>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E28">
         <v>634</v>
       </c>
-      <c r="G28" s="33" t="s">
-        <v>155</v>
+      <c r="G28" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="I28">
         <v>22</v>
@@ -61646,36 +61885,36 @@
       <c r="J28">
         <v>22</v>
       </c>
-      <c r="L28" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="M28" s="34">
+      <c r="L28" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="M28" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","had stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","self-employed")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>9.6349828515433611</v>
       </c>
-      <c r="N28" s="34">
+      <c r="N28" s="33">
         <f>GETPIVOTDATA("count",$G$3,"feature","work_type","stroke_status","no stroke")*GETPIVOTDATA("count",$G$3,"feature","work_type","category","self-employed")/GETPIVOTDATA("count",$G$3,"feature","work_type")</f>
         <v>427.36501714845662</v>
       </c>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E29">
         <v>19</v>
       </c>
-      <c r="G29" s="33" t="s">
-        <v>151</v>
+      <c r="G29" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="H29">
         <v>59</v>
@@ -61686,25 +61925,25 @@
       <c r="J29">
         <v>2410</v>
       </c>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E30">
         <v>1334</v>
       </c>
-      <c r="G30" s="33" t="s">
-        <v>153</v>
+      <c r="G30" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="H30">
         <v>13</v>
@@ -61715,25 +61954,25 @@
       <c r="J30">
         <v>437</v>
       </c>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="G31" s="32" t="s">
-        <v>210</v>
+      <c r="G31" s="31" t="s">
+        <v>208</v>
       </c>
       <c r="H31">
         <v>630</v>
@@ -61744,87 +61983,87 @@
       <c r="J31">
         <v>28574</v>
       </c>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E32">
         <v>685</v>
       </c>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E33">
         <v>16</v>
       </c>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E34">
         <v>510</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E35">
         <v>22</v>
       </c>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E36">
         <v>59</v>
@@ -61832,13 +62071,13 @@
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E37">
         <v>2351</v>
@@ -61846,13 +62085,13 @@
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E38">
         <v>13</v>
@@ -61860,13 +62099,13 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E39">
         <v>424</v>
